--- a/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
+++ b/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
@@ -8,13 +8,18 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,10 +126,37 @@
     <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/CodeSystem/TipoParticipanteUrgencia</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationType</t>
+  </si>
+  <si>
+    <t>ATND</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>SPRF</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/participant-type</t>
   </si>
 </sst>
 </file>
@@ -450,7 +482,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,12 +494,315 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
+++ b/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
+++ b/fhir/ig/urgencia/ValueSet-TipoParticipanteEncuentroUrgencia.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
